--- a/public/cohort/fileExcel/_sjabloon_v4.xlsx
+++ b/public/cohort/fileExcel/_sjabloon_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgnl-my.sharepoint.com/personal/vnr_csg_nl/Documents/SCHOOLdocumenten/CORONA/PTO PTA/cohortproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="11_AD4D7A0C205A6B9A452FA84F5F1974425ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF5094F-6359-4E06-9D2E-321A8F58D497}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="11_AD4D7A0C205A6B9A452FA84F5F1974425ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BAF8D63-ABE0-4AAD-88EA-019D64082587}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="NPV7JcZeSFfrWOOMy4FktHSVBubHH+4NJ4Be5ufi+o9gamxBFI6SJ01p2gdR8GwJg2oz21Kq+F3mE5QILCpmpQ==" workbookSaltValue="di7nY9cM1u4+kMqKHFjvmw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>statusCode</t>
   </si>
@@ -723,6 +723,49 @@
   </si>
   <si>
     <t>TOTAAL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De kolommen G, J, M en O bevatten zogenaamde </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>dropdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-menu's. Gebruik deze voor de invoer. Dat klinkt als een open deur, maar: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>niet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> handmatig overschrijven!</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1014,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1118,6 +1161,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1128,8 +1174,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1950,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2040,16 +2094,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="35"/>
@@ -2096,8 +2155,11 @@
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="35"/>
     </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="35"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TeAQE6RCNzwVHdzX9FyhNliu8+va5Lkdju/NK44UuWH5aKez5DYz9/6S7j5dD7ZLPVVot43sIduw8tqQQ+uX7w==" saltValue="Ebq71HmY02pxWYdAxAbGAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d3VswOBugDSEcxizlCATwXTFi6niRv28FXqfpcai5ufO11YVowrXNjWqvWMa6vNZE7UYAIjZmiJwrdm2DCGv8g==" saltValue="ZguTsVH23F+wBjJXMNYuDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -2110,7 +2172,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2145,20 +2207,20 @@
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="46" t="str">
         <f ca="1">IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
         <v>verouderd PTA</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -2295,16 +2357,16 @@
         <v>33</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="31"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="31" t="s">
         <v>33</v>
       </c>
@@ -2381,16 +2443,16 @@
         <v>33</v>
       </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="31"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="31" t="s">
         <v>33</v>
       </c>
@@ -2467,16 +2529,16 @@
         <v>33</v>
       </c>
       <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="48"/>
       <c r="M8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="31"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="31" t="s">
         <v>33</v>
       </c>
@@ -2556,16 +2618,16 @@
         <v>33</v>
       </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="31"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="31" t="s">
         <v>33</v>
       </c>
@@ -2637,7 +2699,7 @@
       </c>
       <c r="B10" s="6">
         <f ca="1">NOW()</f>
-        <v>44345.729583449072</v>
+        <v>44346.508361111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2645,16 +2707,16 @@
         <v>33</v>
       </c>
       <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="49"/>
       <c r="O10" s="31" t="s">
         <v>33</v>
       </c>
@@ -2734,16 +2796,16 @@
         <v>33</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="48"/>
       <c r="M11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="31"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="31" t="s">
         <v>33</v>
       </c>
@@ -2844,16 +2906,16 @@
         <v>21</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="G13" s="43" t="str">
+      <c r="G13" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -2877,13 +2939,13 @@
         <f ca="1">B15+B11-B7</f>
         <v>2024</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -3005,16 +3067,16 @@
         <v>33</v>
       </c>
       <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="49"/>
       <c r="O18" s="31" t="s">
         <v>33</v>
       </c>
@@ -3087,16 +3149,16 @@
         <v>33</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="49"/>
       <c r="O19" s="31" t="s">
         <v>33</v>
       </c>
@@ -3169,16 +3231,16 @@
         <v>33</v>
       </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="31"/>
+      <c r="N20" s="49"/>
       <c r="O20" s="31" t="s">
         <v>33</v>
       </c>
@@ -3251,16 +3313,16 @@
         <v>33</v>
       </c>
       <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="31"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="31" t="s">
         <v>33</v>
       </c>
@@ -3333,16 +3395,16 @@
         <v>33</v>
       </c>
       <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="31"/>
+      <c r="N22" s="49"/>
       <c r="O22" s="31" t="s">
         <v>33</v>
       </c>
@@ -3415,16 +3477,16 @@
         <v>33</v>
       </c>
       <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="49"/>
       <c r="O23" s="31" t="s">
         <v>33</v>
       </c>
@@ -3511,16 +3573,16 @@
         <v>21</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="G25" s="43" t="str">
+      <c r="G25" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3537,13 +3599,13 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="3:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3658,16 +3720,16 @@
         <v>33</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
+      <c r="I30" s="48"/>
       <c r="J30" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="48"/>
       <c r="M30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="31"/>
+      <c r="N30" s="49"/>
       <c r="O30" s="31" t="s">
         <v>33</v>
       </c>
@@ -3740,16 +3802,16 @@
         <v>33</v>
       </c>
       <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="31"/>
+      <c r="N31" s="49"/>
       <c r="O31" s="31" t="s">
         <v>33</v>
       </c>
@@ -3822,16 +3884,16 @@
         <v>33</v>
       </c>
       <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
+      <c r="I32" s="48"/>
       <c r="J32" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="48"/>
       <c r="M32" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N32" s="31"/>
+      <c r="N32" s="49"/>
       <c r="O32" s="31" t="s">
         <v>33</v>
       </c>
@@ -3904,16 +3966,16 @@
         <v>33</v>
       </c>
       <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N33" s="31"/>
+      <c r="N33" s="49"/>
       <c r="O33" s="31" t="s">
         <v>33</v>
       </c>
@@ -3986,16 +4048,16 @@
         <v>33</v>
       </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
+      <c r="I34" s="48"/>
       <c r="J34" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N34" s="31"/>
+      <c r="N34" s="49"/>
       <c r="O34" s="31" t="s">
         <v>33</v>
       </c>
@@ -4068,16 +4130,16 @@
         <v>33</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="29" t="s">
         <v>33</v>
       </c>
       <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
+      <c r="L35" s="48"/>
       <c r="M35" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="49"/>
       <c r="O35" s="31" t="s">
         <v>33</v>
       </c>
@@ -4148,28 +4210,28 @@
         <v>21</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="G37" s="43" t="str">
+      <c r="G37" s="44" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="3:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="puRgrYCDnCsuTz2/h2Po69QZMNx3noAt/zHUQ+KS3fUVuWgjxNI1iLFxgXmxzrPLo/RLpcodW5Gh/dGtEsH9hA==" saltValue="ddgoaj2XY5T+0BSM3eqGrA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cNb6knNTpaV7D1mf7Iu/lgYj9kXwfXjOtkhAQEWDHFVwb8oqXWtXWieJjx8ezWiH4NKu/Y6gcKPG2XrRP9UI3Q==" saltValue="htMrYuTnwu2LK4yRq/X2Wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4230,6 +4292,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I11 L6:L11 N6:N11 I18:I23 L18:L23 N18:N23 I30:I35 L30:L35 N30:N35" xr:uid="{7FD6197E-AE36-40A0-8859-3E85942E4DBB}">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
